--- a/data/labeled_data/Mathias.xlsx
+++ b/data/labeled_data/Mathias.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C72DE9-F67B-4849-A2E1-3CBA6E46BDA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1543" yWindow="1106" windowWidth="17588" windowHeight="10988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unique" sheetId="1" r:id="rId1"/>
+    <sheet name="Shared" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +20,1335 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="328">
+  <si>
+    <t xml:space="preserve">The same whale spiked up btc decides to drop the hammer.. there will be chaos_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorted the DOW at 24..4k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uptrend is based off short-selling strats, shorts tend to congregate around delivery estimates and earnings reports. about 2 days after, they close their short positions, which causes a strong spike up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really want to know who is buying at these levels._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the forecast for the day buy or sell i am new please guide_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God Bless Donald Trump. Tesla will be banned in China or at least they will have huge duties ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  usd incoming till december_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think it will go up to  [OPTIMISTICVALUE]  area "Bull trap"_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone know what they plan on announcing today?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target 5k  [PESSIMISTICVALUE]  dec 2018, are you ready!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is trying to force the fed to abandon the rate rise,, below 24k and u know what fomc will bring.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  today??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i would be extremely careful as the second target of the rising wedge is exactly at the neck of this huge H&amp;amp;S.; the perfect storm that might not happen_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luckily my portfolio is 35 percent into bonds_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is this a fan club or what? market crashing yet this stock going up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is good to be hodlers these days_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the present issue in money inflows into to the market.  just not enough cash to lift all the sectors at the same time. .  you can pull the data of wsj._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP500 heading to 2900. This is a Buy Mkt_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine I give it a try, It’s weak_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Buffet..Where going to need your HELP" pretty Soon..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I congratulate you people who bought today and pity those of you who sold. *The news* of the last two months is the fact that Models 3 at 35K, **NOW**. Sales will EXPLODE. There is literally nothing negative since it reached $ [OPTIMISTICVALUE]  but the stock is 275 now, ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’ll be back in same position!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does anyone have anything to offer more than what a program can tell me?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla needs 1billion usd by February. If shares are not at  [OPTIMISTICVALUE] . Convertibles._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell fast posible you can_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The people here Know who's the best and it is not you!!!!!!!!!!!!!!!!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timber?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green light?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going higher_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So let me get this Autodata reported 2017 sales data correct:  GM sold 23.300 Chevy Bolts in 2017 to Tesla's 1,800 Model 3s and Tesla is a leader in electric car roll out?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tether bot in bitfinex is being used to defend BTC price now. Looks like it's out of resource to pump again._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">futures - bears 130 bulls 0_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without Musk the equity is worth zero_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right after the president's inauguration in Russia this thing is going down. Insider info._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another round of sale off after mobs' lunch break._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any of the bears in here planning to target Pinterest or Uber IPO's? The latter of these, at least, is looking awfully dicey. No gains for the private sector, inflated investment prices, and big plans to capture these "gains" from the public markets. Lyft ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bored now. These sideways *******. Need any big red or green candle_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the dollar falls the so-called financial expert say, the stock marked is up due to dollar weakens. Today usd is up 0.5 percent against euro and all basket currencies. The job data on friday was bad, no important data has been annonced so far! Why is D...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As long as it closes above 268.5 today and 271 tomorrow - which is quite likely --- it will start moving north from there_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tethers are printed 40000000 on Jan  [PESSIMISTICVALUE]  and 31. BFX bots will perform price action with them. Be careful. nnhttp://omnichest.info/lookupadd.aspx?address=1NTMakcgVwQpMdGxRQnFKyb3G1FAJysSfz&amp;amp;page;=1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow Jones had 20-Day Moving Average near previous high (24.373). Once the index moves above this level, then its next target will be 100-Day &amp;amp; 50 Day MAs near 24,700/ 24,800. As long as Dow Jones trades above its 20-Day MA, its will be in a short term uptr...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just for info now:. $TSLA short interest $10.4 bn, 35.4 mm shares shorted 27.76% of float_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who's shorting from 6750? Anyone?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US first quarter GDP expected lower because of shout down government 800.000 workers not getting paid...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimately we believe the company's guidance is aggressive," analysts from Wedbush Securities said in a note to clients. Musk has long resisted the need to raise capital, but he told a conference call with analysts it was now the right time. Several analys...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wake up people. There is newborn crypto currency Petro, backed by oil, gas, gold and diamonds. Oh, I forgot, what is BTC backed by?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Trump was trying to achieve at was so called partial optimization. By reducing US trade deficits (achieving at partial optimization). the US will sacrifice total optimization, that is, global economy as well as economy in th US._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">again and again  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are looking into alts MTC and POLL would be the best choice_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see how they rigg up now all day this_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Volkswagen will buy 50 billion euros ($56.57 billion) worth of battery cells for electric cars and has identified South Korea's SKI, LG Chem and Samsung (KS:005930) SDI as strategic battery cell suppliers as well as China's Contemporary Amperex Technology...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still  [PESSIMISTICVALUE] .7k till 1.6 cryptogeorge? Lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well done trump, no christmas rally thanks to you_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do u people think its early to jump in ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS I said 5.000 next 6,000-7,000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only goes up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your that worried about one position your trade size is to big_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGN Btc  [OPTIMISTICVALUE] $ in week_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold tight_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zerohedge.com/news/2018-10-25/analyst-erupts-tesla-they-used-every-trick-every-fraud-put-lipstick-q3-results_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soem people here should stay humble...they made some money (not as much as they say) once in their lifetime of investing and now are giving lessons of life to the others, these people are the losers in the long run, do not follow the so called genious, to ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIX isn’t buying it_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouch broke 260. More down trend to come_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmm ...money moving to the alt coins now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I find this technical study very good ...    .  https://www.tradingview.com/chart/DJI/FJcuEq8a-Trade-War-Technical-Bearish/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somebody went short_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE] $ sooon btc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder what happens when election season kicks off..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it seems that anaother red day today._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So many people will regret for not buying precious metal with this thing_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hodl !_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs cut really! What about semitruck or model Y or the model 3 X or S to many orders so they cut 10% of work force?!?! Cmon!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When its boring expect action weather down or up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like Capital Markets are running out of gas. They just don't know what to come up with next in order to propel these markets anymore._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla made $313 millions and need pay suppliers $600 millions this is the way to make profit nice!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price is way below  [PESSIMISTICVALUE]  already on other exchanges._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy now with sl  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irrespective of Musk production drama, it's shorting time (started 1st day @ [OPTIMISTICVALUE] -343, 2nd day @342-330, 3rd today @332-310) --------. . Next 4 days. 05Jul2018 307 -286-287. 06jul2018  280-266-268. 09jul2108  277-267-273. 10jul 2018  277-263-276. . So the bo...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What can you spot from monthly candle, newbie!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What about S America ,... Brazil ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No blood in the streets yet... max pain is at $90. Even Warren might buy some at that price._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its a good price .. it don’t matter which direction it goes !_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is Irina?missed her comments today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">china will tariffs on car import from US_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be? Do not fall in love. . Copy-paste. . "The mistake of fanatics is to consider that a speculator knows the product and values it, that's why he buys it; it's not like that, the speculator buys because it rises and gives it a yield, be it an stock, an ind...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaos come first then the same situatio is waiting for us_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trending up.  The trend is your friend._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodbye BTC... RIP. We will miss you._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dow needs a lot of adjustments to go up.  DOW can not go up without adjustment._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many time did we shorts on this forum warned that betting on China is a big mistake by Elon._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC once again attempted to stay above the daily MA50, however, it pulled back. The price rebounded from Fib50%= [OPTIMISTICVALUE] /past weekly close(8232.3) &amp;amp; the BB is becoming narrower (8706-8030). The daily TI continue to exert selling pressures which are always bein...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry Bears ... Trump kicked your Assy again :) lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markets are up but investors have lost confidence in this stock -$ [PESSIMISTICVALUE]  today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] k drop from kumar sell and now its the pits?.... kumar... you have strike  [PESSIMISTICVALUE] .... wanna beeee long Bitcoin lmao_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalper pls help_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the fact Audi launches its own electric vehicle simply means that TSLA is at least one decade ahead with their technology compared to the competition. decade in technology terms is comparable to centuries in mechanical terms. I assume that makes very clear...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..good mourning_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just follow the trend up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open your eyes and look the big picrure, general market is down, FB crash etc, it has nothing to do with any analyst comments or your belife on Tesla, it is market risk, ur tsla goes down when the market is down, thats all you need to know._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC will reach 4500USD before  [PESSIMISTICVALUE] /26/0:00:01_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENT
+</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today for bears as i said since morning time_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today update up or down_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upside limited  [OPTIMISTICVALUE]  Downside 5200 I think it's still bettet to short the btc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just as I expected .... a booming economy and what a ridiculous reaction yesterday._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seems this is the ,most stable company in nasdaq.. Perfect balance sheet_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is this going up to  [OPTIMISTICVALUE]  or I'd it getting ready to take as dump in my face_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow’s gonna roll hard into the fed decision next week...no rate hike as a result..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musk is the biggest asset of Tesla!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily says dump weekly says dunno_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could be some retracement on Monday up to 25750-26000 area to get more sellers with the target  [PESSIMISTICVALUE] ..Need to touch SMA200  to renew sale force... today was a free fall at the end of the day_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you trade enough, you'll know this is all just monthly opex hype. The next few weeks will be back to normal._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still inside my pattern. I am in no hurry waiting for  [PESSIMISTICVALUE]  to buy. 2920 is a possibility also but I''d rather be a little early than miss the opportunity._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take take take your hand :DD ahahah . or open sell ;)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great opportunity to buy. Model 3 is taking off._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that allah for beer because this board is a mess_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usa is owned by chinese_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has it bottomed out?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC market value against Real estate, just a reminder on how tiny this market is:  https://www.youtube.com/watch?v=qvhd7FqgRZc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let the head cutting begin...Gee it's not even lunch yet._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock is going to 7314.49, and if it doesn't, it'll go to 1.99.  Trust me, I'm an expert._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">win&amp;amp;win; bull_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The train is just stopped on this drive??? "everyone get in or get out" next station is not yet known, Boarding can still if the train ride at walking pace, then no more!. Top speed of a train is unknown to me! As well as the first station where he stops a...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTI Trader and sophie jacobs are the same person.  Swat these fly's away via the block button_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.  [PESSIMISTICVALUE]  coming_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bear trap carefull_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to the moon_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next stop 6160_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boeing, Cat &amp;amp; Intel are major drag and may sustain the down trend today........_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model 3 is available now if you pay $55k so if you are waiting for the $35k forget it! people will start to cancel ._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am trading according to the chart, which I posted  [PESSIMISTICVALUE]  hours ago: https://invst.ly/7i-b2 As of now, 5H and daily TI continue to be in the "sell" position, except for StochRSI and Williams - which are in the "oversold" position. Based on the last two indica...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge drop come back......wanna cry_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$305 today?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I miss Kumar, his number 6666_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would be great if we could at least SEE a pullback after so much upping!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People are insane._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really think that this lack of volume is because many believe this could be wave  [PESSIMISTICVALUE]  or even crazier .. corective wave B. I think this is wave 3. Looking to go a bit above previous high for confirmation. This would play nicely with the big inverted h&amp;amp;s.; Pa...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short folks. I agree that we have an overvalued market. However, there are some solid fundamentals that are aligned. At this moment, Im short. But I will be very quick to exit if things swing north. I do not trust any position right now. Just strategically...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loosing money on every car sold, this company is doomed..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The last rally to 10k hit the daily  [PESSIMISTICVALUE]  MA with almost the same count structure with the 4th being only a .236 retrace. The best thing that should've happened for a longer run was getting a sharp retrace right now to the 7400 area and regroup some strength...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwerrtyyyu_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The moment of the truth._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hope BTC does not sink without touching  [PESSIMISTICVALUE] .7K_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you round off today to 24609, then the DOWS off the ATH by 2018. Maybe there's a hidden message there or maybe it's time for me to get another DOG._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down 2% up 2% up 0.37% I'm so confused_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20k by midnight_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the longest bull market in history comes the worst bear market in history. I have a feeling this bear market will not be a sudden drop. No snowball effect in this one. More like a butterfly effect. I expect dow in the 12k to 16k range come 2020 elect...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it makes no sense that the stock is up 4% it should be down 20%_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good to see that people still have faith buying my precious :) Watch out for 11K though ;)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We should also consider, would you buy a car thats now double what it was 12 months ago ? Equites are supposed to reflect the companies asset value should it be divided up into its parts and sold. . Obviously thats not the case here. Even Michael Bloomberg...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After-hours hahahaha who was trying to buy-the-dip. It was a stop for stock distribution to weak hands!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bears started taking control and have the edge_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America is getting mad_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  by the end of the day_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So is it going to be Sell or Buy for the day? What should be be the SL and TF. Newbie here. Help._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like bit-coin._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If people only think where that green energy came from?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ccn.com/bitcoin-price-intraday-analysis-btcusd-hinting-another-bear-flagpole/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give up dow30 is a joke , bulls crazy_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I ain't touching this again til it gets near $ [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have hit  [PESSIMISTICVALUE] .130 This morning. This ***is going up, Easter is almost done. We allready have had so many negative hits, IMO we will get some positivity from now. HODL._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I place a buy for long term.. I'm new on indices_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I still believe._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why can't they find Kumar's IP address and ban him indefinitely from the forum??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going to close green after filling gap_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well I got burned twice on this during this current run up , once last week and once this week . I short this with Puts and 100 or  [PESSIMISTICVALUE]  shares of the stock.   I should have known better because it was an obviously short squeeze.    Did you short this prior ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has somebody bought Veros (VTS)? If so congratulations, you are rich now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What happened_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oh what a tangled web we weave, when at first........._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are big players moving this coin. Just like opec did with oil._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let me guess, another day of optimistic trade talk headline._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://invst.ly/7o9w-_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">☆○ time to buy?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can someone explain why a no deal Brexit has any affect on the American companies in the Dow?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilarious! ;) Added shorts at at 365, 375 and 382._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hope we are done guessing.  [OPTIMISTICVALUE]  on the way._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seem like it's going up , but it's not safe to buy this area_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under 300 its always good entry point I will add a few more :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tvc-invdn-com.akamaized.net/data/tvc_fcddf705c438e1c9dabe6a551cd7758d.png_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today may be 400-500pts up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is the problem the Y is identical to the 3 so nothing exciting.but people now are cancelling the 3 to buy the Y .plus is not a good looking car. breaking$275 is the big support after who knows!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dumb...too difficult to predict with any justification. Perhaps, end of Jan / 1st week of Feb will be cleaner. For me, Jan  [PESSIMISTICVALUE] , and Feb 8 are critical dates for any major swing apart from media burst.. . https://invst.ly/6gair_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don't buy..wait patiently it will touch  [PESSIMISTICVALUE]  soon..don't buy_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy the dip.. https://invst.ly/agsl2_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If it drops below  [PESSIMISTICVALUE]  it will be below wave 1 and invalidate the bullish count on EW. Bulls want a healthy retrace to 7500 then a push to 9K._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is going to go deep..I’m sticking to minus 1k..imo_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will have to manufacture petrol cars , too_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saw an asian guy on TV last month. Said he selling his house. Only wants to accept BTC. Wonder how that worked out lol lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithms in control...place sell order_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regardless of noise, the US is not going to do anything meaningfully punitive to their rocket man and Tesla will conquer the world._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pump is over, let the dump begin :D_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraud on his best_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla made impossible to order and buy the $35 k model 3 .why ?because they lose money._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ john nicol Post  [PESSIMISTICVALUE]  trades here, in public. If 9 of them end up winning, i will sent you 1 BTC on behalf of the community (no need to share your miraculous software). Deal?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call you last night folks all games are being given back manipulators out in full force on and off the floor_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sellers have arrived...no one left to buy._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany’s largest stock exchange Deutsche Börse is working deep on bitcoin. The news of the exchange currently understanding the concept of “underlying transactions” and regulatory effect to launch bitcoin services came a week after Germany’s 2nd largest b...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's impossible to have such volatility after FED. Normally, DOW is fluctuating 0.5-0.8%/day. Something else is the ,,middle" of troubles..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to short at  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double up on shorts. Looks like a massacre. Sell above 6K_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notice that large Market drops have occurred within weeks of some of the Largest Retail inflows in history. Large retail inflows is one of the best indicators there is for going short._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345 god entry point for going long_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its trading so sideways these days I have to look at the 1m chart to even see some volatility_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This thing is money eater. Wall street always wins. Like casino_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very important test of $270 if it breaks it may actually go up higher or will reverse course?  what will it be?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XRP PUMP_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow Intra-day Buy above 25923 Targets 25943 25974. Sell below  [PESSIMISTICVALUE]  Targets 25838 25808. Bullish above 25976. Bearish below 25806_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we are bearish/short: . - the moat around tesla is gone; . - competition encroaching, . - brand name blemished. - 10 yr. cost of tsla car ownership is higher than CEV. - EV market size is only 1%! total Car market... Who could challenge this?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are we red yet?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow intraday long above 26681 Targets 26712 26744. Short below  [PESSIMISTICVALUE]  Targets 26585 26553_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eternal bull is here :D Good point to enter. hahahaaa_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not your keys not your bitcoin. LOL Quadriga CX_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell off coming after lunch. :(_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you notice people touting NIO are gone?  That stock is currently selling at $6 and going lower!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xrp will one day 0. [PESSIMISTICVALUE] $ because much circulation of xrp_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bulls will lie and Cheat to save there Lively Hoods...Anything...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People in China gets fined and demoted at their workplace if they own Apple iPhones. Imagine if someone drives Tesla to work in China lol._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about to run more looks like :)-~_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loai hi whats up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESLA WILL BE MAKING BIG PROFIT VERY VERY VERY SOON!!! I RECOMMEND EVERYONE BUY BUY BUY!!!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stable growth target  [PESSIMISTICVALUE]  000 in 5 years_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oh wow. Will be interesting to see what tomorrow brings. That daily candle is just sick_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have buy  orders at  [PESSIMISTICVALUE] -150_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting for ~$7.000 to go long futures or sell puts.. https://invst.ly/6xl78_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Forget this phoney market, folks. Trade forex and metals. Much more predictable. It will just keep on Going until something real, real bad occurs. Sorry_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that's what happen when you don't bribe government workers in China._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It needs to test that  [PESSIMISTICVALUE]  and reject it._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like we are heading towards  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I entered yesterday, wish could add some more today as well._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i own  [PESSIMISTICVALUE] .34 btc bought in fractions on the way down. from 8000 $ to here . just added 0.0 [PESSIMISTICVALUE]  btc just now. i also own approx  [PESSIMISTICVALUE]  BTC in altcoins bought or when it was supercheap before the last bull run or bought when it was extremely cheap these days. so my to...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowing China to continue to economically cheat us will really destroy our economy in the long run. Trump is the only President that has ever said enough._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-engadget-com.cdn.ampproject.org/v/s/www.engadget.com/amp/2019/03/08/tesla-investors-sue-over-elon-musk-tweets/?amp_js_v=a2&amp;amp;_gsa=1#referrer=https://www.google.com&amp;amp;_tf=From %1$s&amp;amp;share;=https://www.engadget.com/2019/03/08/tesla-investors-s...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it worth to set up a mining rig? My elektricitet price is 0.06 kw/h ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emotions that leading this current trend_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well, they have reduced the PT to  [OPTIMISTICVALUE]  but Tesla is still outperform_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hope there is no one thinking of hurting themselves over money. There are hotlines to help._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fake news trying to have the market Recover for what throw The principles are still the same ..Read My Lips THE MARKET IS 50% OVER VALUED.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we break $ [PESSIMISTICVALUE] .50 today next stop $279-280_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here's a reasonable estimate: nnnhttps://cointelegraph.com/news/analyst-predicts-bitcoin-price-rebound-above- [PESSIMISTICVALUE] -000-by-2019_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Move in a-b-c to the upper end of the rising channel is open_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday they registered 4.793 new VINs. And today even 2,915 more. That's 27% of the total in these last 2 days. They really are ramping up the production it seems!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At this point, this needs to get back through 9.322 (the Feb. 26th low) to stabilize. Still technically at most important time scales a clear sell_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22430 coming_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elon musk is just developing his secret sauce Tesla is long money $280 is a ****deal_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ccn.com/french-finance-minister-reverses-course-touts-cryptocurrencies/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overbought at 15min. It will continue climbing anyway_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warning this stock is ready to collapse._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bcc is the real btc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow is gambling._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next long is  [PESSIMISTICVALUE]  to 243_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No moon crytpo kittens... gravity pulls you back... 3k is coming :)))))_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkisk bank the named Sekerbank #skbnk will be sold soon ...,_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anybody else see a gap @  [PESSIMISTICVALUE]  which needs to be closed?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that it?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you may find all the negative data you want. but in the short period it is long!!!! And tomorrow it will go up. and a lot_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook is a strong sell also!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H&amp;amp;S; successfully formed. We should be seeing the sights of 8.800 once again this weekend._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wouldn't be surprised if it went below $240 today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What price is investing showing for bitfinex ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where in the world is Phillip Seago when u need him._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target price $  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am sure  in future we all will use crypto but that is not bitcoin.  or any crypto in the list now first people will forget it then rethinking of a model where there is some stabe monetary behavior._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The more shorts, the more fuel to drive this market up. Bear trend ended on April 2 with a perfect M shape on daily chart and gave a huge buy signal targeting a lower high in the area 25K-25.3K. Yesterday's drop was a false one and got invalidated at the b...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like I said before there will be no deal with China and market is about at very late stage from December rally here.  You really have to be stupid to hold stocks now.  Small investor eventually get hurt one way or the other by holding shares that are dropp...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL bulls :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I told u guys going to recover by 10:00am_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla downgraded to underperform at RBC, PT $ [PESSIMISTICVALUE] . Tesla sell rating reiterated by Goldman Sachs, PT $225. Goldman analyst says Model 3 demand likely below internal expectations._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  is goal for now._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for NASDAQ to rollover.  It will take DOW down as well.  Maybe not red but only up about 100_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I keep saing Tesla is, for all intents and purposes, a ponzi scheme. SP flags, investors get imatient, so they hastily announce a new model, draw suckers in, and the price moves up. Of course to the benefit of those already holding. New model proves a comm...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US$ [PESSIMISTICVALUE]  next stop._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This going down quite a bit by eod_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSLA above  [OPTIMISTICVALUE] $/ share in 2018_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.babypips.com/trading/is-bitcoin-dead Some scary reading for the perma bears ;)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's exactly what I meant yesterday while most of you were making fun of me. I am sorry for all of you shooters. I m not kidding. Pay attention because the climb is NOT over. The trend is green and all the funsamentals lets suppose an increase in the val...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musk and friend are buying all the share to keep this company alive no share to short available._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is my 9000k????_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is a crisis ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where are you getting 80% market share exactly?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complaint Box.... com·plain kəmˈplān/ verb; express dissatisfaction or annoyance about a state of affairs or an event._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just another day of optimism._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So today buy or sell??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After this who will touch this either short or long? Well shorts did well this time, but moves like will wipe out any confidence to trade it IMO._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm lion King.... Lion hunts and fox comes afterwards to take remaining garbage credit. Hahahaha....._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What to do when everyone wants to short it...oh I know squeeze them out when they think that it should be going down (it makes people mad)...like BA did on its first bad day...and then go down a few days latter._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This looks like an ending 5th or C finishing out._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow intra-day Long - close above 25369,   Short - close below  [PESSIMISTICVALUE] . Book profits in 30 points for safe side._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My guesses for the announcement is full self-driving demo._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zoomed out15 min chart looks similar to when the last bear whale was slayed http://www.billymabrey.com/images/gumprints/the-bitcoin-bearwhale-overlay.jpg_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today -800 point,_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massive bubble ready to crash soon_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I dont see the price will go under  [PESSIMISTICVALUE] , it will stay at this range, them 8000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air coming out of this bubble. this is just the beginning of the decline_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this stock is toast......done....free falling_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every hope for reversal will be sold watch this_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I told ya the bond market is right and equities are wrong._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESLA =  Waymo + Uber + Mercedes + GE batter/electric SO 2019 year end target easy $530. Exact same price action happened in 2016 ;)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ccn.com/impossible-shut-cryptocurrency-exchanges-govt-lacks-authority-koreas-fair-trade-chief/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Close 680-700_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSLA short interest is $10.19 bn, 28.75 mm shares shorted, 22.36% of float. Stock borrow supply has been replenished by steady Tesla buy-to-covers, -6.0 mm shares since The Tweet &amp;amp; -1.2mm in Nov, it is now almost a General Collateral stock borrow. Saw more...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think end of the mystery soon SOER_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as stock markets are immune to the economic indicators, it just shows the size of the bubble we are in..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla would do very well going private. Company is not ready if stay in IPO $ [PESSIMISTICVALUE]  real fast_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm so happy right now this is really going up, Hahahah :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy dow every dip_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark my words, this will hit 500. it's an approtunity to buy... Warren Buffett says " buy when people are afraid and sell whe they are greedy"_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the XEM BTC chart.... Cup formation?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake news time to burn_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a dream tesla is gonna be 410. hopefully.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When i told you we are going to 20k and i was sent to see a doctor :) https://www.tradingview.com/x/att55FPd/. . https://www.investing.com/crypto/bitcoin/chat?comment=6729859#6730009_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bulls are exhausted :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOL......I guess I would wish it too if I'd own it. Don't kid yourself.....it's a Falling Knife...take a profit while you can_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6390+/- unless it confirms before hand, then my method would be wait and buy the retest of sellers as close to 6390+/- as given. AIs are pesky devils, they make you play their game ;)._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here comes my beautiful red Christmas!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please don't panic, there's a Tesla out there in SPACE!! :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korean Card Companies Block Transactions to Overseas Cryptocurrency Exchanges_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China stocks rally on policy easing speculation. https://www.thestar.com.my/business/business-news/2018/04/25/china-stocks-rally-on-policy-easing-speculation/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are news of the last 3 months: 1) M3 started selling in EU and China. It become #1 selling car in Germany and Norway. 2) 35K model of Model 3 became available in US becoming #1 selling car in California, the biggest car market in US, deliveries had t...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i sip AT's for breakfast :)-~_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tried to tell you earlier, below 24k was capitulation._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla not evening going under 271_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im hoping ETH to take over_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonna come back cus Walmart oversold your gonna see comeback on Walmart cus Walmart is_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in other news, Tesla Chief Elon Musk changes his twitter account name to Elon Tusk and stock goes up 4%!!! Amazing company!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does anyone else hear the Jaws theme playing in the background? Seems like a short trap getting ready to spring._x000D_
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +1371,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +1665,1987 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="G220" sqref="G220"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="54.921875" customWidth="1"/>
+    <col min="2" max="2" width="5.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>217</v>
+      </c>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>219</v>
+      </c>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>225</v>
+      </c>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>227</v>
+      </c>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>229</v>
+      </c>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>231</v>
+      </c>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>232</v>
+      </c>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>236</v>
+      </c>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>237</v>
+      </c>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>238</v>
+      </c>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>239</v>
+      </c>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>240</v>
+      </c>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>241</v>
+      </c>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>242</v>
+      </c>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>243</v>
+      </c>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>244</v>
+      </c>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>245</v>
+      </c>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>247</v>
+      </c>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>248</v>
+      </c>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>249</v>
+      </c>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>250</v>
+      </c>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>251</v>
+      </c>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>252</v>
+      </c>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>254</v>
+      </c>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>255</v>
+      </c>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>256</v>
+      </c>
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>257</v>
+      </c>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>258</v>
+      </c>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>259</v>
+      </c>
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>260</v>
+      </c>
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>261</v>
+      </c>
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>262</v>
+      </c>
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>263</v>
+      </c>
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>264</v>
+      </c>
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>265</v>
+      </c>
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>266</v>
+      </c>
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>267</v>
+      </c>
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>268</v>
+      </c>
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>269</v>
+      </c>
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>270</v>
+      </c>
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>271</v>
+      </c>
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>272</v>
+      </c>
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>273</v>
+      </c>
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>274</v>
+      </c>
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>275</v>
+      </c>
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>277</v>
+      </c>
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>278</v>
+      </c>
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>279</v>
+      </c>
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>280</v>
+      </c>
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>281</v>
+      </c>
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>282</v>
+      </c>
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>283</v>
+      </c>
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>284</v>
+      </c>
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>285</v>
+      </c>
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>286</v>
+      </c>
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>287</v>
+      </c>
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>288</v>
+      </c>
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>289</v>
+      </c>
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>290</v>
+      </c>
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>291</v>
+      </c>
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>292</v>
+      </c>
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>293</v>
+      </c>
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>294</v>
+      </c>
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>295</v>
+      </c>
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>296</v>
+      </c>
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>297</v>
+      </c>
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>298</v>
+      </c>
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>299</v>
+      </c>
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>301</v>
+      </c>
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>302</v>
+      </c>
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>303</v>
+      </c>
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
+        <v>304</v>
+      </c>
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
+        <v>305</v>
+      </c>
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
+        <v>306</v>
+      </c>
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
+        <v>307</v>
+      </c>
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
+        <v>308</v>
+      </c>
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
+        <v>309</v>
+      </c>
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209" t="s">
+        <v>310</v>
+      </c>
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210" t="s">
+        <v>311</v>
+      </c>
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
+        <v>312</v>
+      </c>
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
+        <v>313</v>
+      </c>
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
+        <v>314</v>
+      </c>
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214" t="s">
+        <v>315</v>
+      </c>
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
+        <v>316</v>
+      </c>
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216" t="s">
+        <v>317</v>
+      </c>
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A217" t="s">
+        <v>318</v>
+      </c>
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
+        <v>319</v>
+      </c>
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
+        <v>320</v>
+      </c>
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A220" t="s">
+        <v>321</v>
+      </c>
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221" t="s">
+        <v>322</v>
+      </c>
+      <c r="B221" s="1"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A222" t="s">
+        <v>323</v>
+      </c>
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A223" t="s">
+        <v>324</v>
+      </c>
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
+        <v>325</v>
+      </c>
+      <c r="B224" s="1"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
+        <v>326</v>
+      </c>
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>327</v>
+      </c>
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B227" s="1"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B230" s="1"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B231" s="1"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B236" s="1"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B237" s="1"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B240" s="1"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B241" s="1"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B242" s="1"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B243" s="1"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B244" s="1"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B245" s="1"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B246" s="1"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B247" s="1"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B248" s="1"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B249" s="1"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B250" s="1"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B251" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A175" r:id="rId1" xr:uid="{9823779D-A214-4B77-8AC9-0F9439A60938}"/>
+    <hyperlink ref="A199" r:id="rId2" xr:uid="{501B18F8-FD0F-4C9D-AA26-358FB08B1109}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A895C986-5639-41B7-97E4-8502EF320921}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="55.3046875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A61" r:id="rId1" xr:uid="{D5864DC2-6911-4832-85F0-7E97A621681A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/labeled_data/Mathias.xlsx
+++ b/data/labeled_data/Mathias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morten/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfo19\workspaces\TextAnalytics\TA_exam\data\labeled_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A995F29-D3C6-E848-9497-4D228E8BC7F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35DCEF5-66D6-4E7A-A39F-6E123B82584D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="332">
   <si>
     <t>ID</t>
   </si>
@@ -1394,6 +1394,15 @@
   <si>
     <t xml:space="preserve">BTC will reach 4500USD before  [PESSIMISTICVALUE] /26/0:00:01_x000D_
 </t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>NEU</t>
+  </si>
+  <si>
+    <t>NEG</t>
   </si>
 </sst>
 </file>
@@ -2636,17 +2645,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV251"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="135.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="1" customWidth="1"/>
-    <col min="4" max="256" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="135.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" style="1" customWidth="1"/>
+    <col min="4" max="256" width="8.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2660,3157 +2671,3157 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
-        <v>2</v>
+      <c r="C2" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
-        <v>2</v>
+      <c r="C3" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
-        <v>3</v>
+      <c r="C4" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
-        <v>2</v>
+      <c r="C5" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
+      <c r="C6" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
+      <c r="C7" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
-        <v>3</v>
+      <c r="C8" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
+      <c r="C9" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
-        <v>2</v>
+      <c r="C10" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
-        <v>2</v>
+      <c r="C11" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6">
-        <v>2</v>
+      <c r="C12" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
-        <v>2</v>
+      <c r="C13" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6">
-        <v>2</v>
+      <c r="C14" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
-        <v>1</v>
+      <c r="C15" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6">
-        <v>2</v>
+      <c r="C16" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6">
-        <v>2</v>
+      <c r="C17" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6">
-        <v>2</v>
+      <c r="C18" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6">
-        <v>2</v>
+      <c r="C19" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6">
-        <v>2</v>
+      <c r="C20" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6">
-        <v>2</v>
+      <c r="C21" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6">
-        <v>1</v>
+      <c r="C22" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6">
-        <v>2</v>
+      <c r="C23" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6">
-        <v>2</v>
+      <c r="C24" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6">
-        <v>3</v>
+      <c r="C25" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="6">
-        <v>3</v>
+      <c r="C26" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="6">
-        <v>1</v>
+      <c r="C27" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="6">
-        <v>2</v>
+      <c r="C28" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="6">
-        <v>3</v>
+      <c r="C29" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="6">
-        <v>2</v>
+      <c r="C30" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6">
-        <v>2</v>
+      <c r="C31" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="6">
-        <v>3</v>
+      <c r="C32" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="6">
-        <v>2</v>
+      <c r="C33" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="6">
-        <v>2</v>
+      <c r="C34" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="6">
-        <v>2</v>
+      <c r="C35" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="6">
-        <v>3</v>
+      <c r="C36" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="6">
-        <v>2</v>
+      <c r="C37" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="6">
-        <v>3</v>
+      <c r="C38" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="6">
-        <v>3</v>
+      <c r="C39" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="6">
-        <v>2</v>
+      <c r="C40" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="6">
-        <v>2</v>
+      <c r="C41" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="6">
-        <v>2</v>
+      <c r="C42" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="6">
-        <v>3</v>
+      <c r="C43" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="6">
-        <v>2</v>
+      <c r="C44" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="6">
-        <v>2</v>
+      <c r="C45" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="6">
-        <v>1</v>
+      <c r="C46" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="6">
-        <v>2</v>
+      <c r="C47" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="6">
-        <v>3</v>
+      <c r="C48" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="6">
-        <v>1</v>
+      <c r="C49" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="6">
-        <v>2</v>
+      <c r="C50" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="6">
-        <v>3</v>
+      <c r="C51" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
-        <v>3</v>
+      <c r="C52" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="6">
-        <v>3</v>
+      <c r="C53" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="6">
-        <v>1</v>
+      <c r="C54" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="6">
-        <v>2</v>
+      <c r="C55" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="6">
-        <v>2</v>
+      <c r="C56" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="6">
-        <v>2</v>
+      <c r="C57" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="6">
-        <v>2</v>
+      <c r="C58" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="6">
-        <v>3</v>
+      <c r="C59" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="6">
-        <v>3</v>
+      <c r="C60" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="6">
-        <v>3</v>
+      <c r="C61" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="6">
-        <v>1</v>
+      <c r="C62" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="6">
-        <v>1</v>
+      <c r="C63" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="6">
-        <v>2</v>
+      <c r="C64" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="6">
-        <v>1</v>
+      <c r="C65" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="6">
-        <v>2</v>
+      <c r="C66" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="6">
-        <v>2</v>
+      <c r="C67" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="6">
-        <v>2</v>
+      <c r="C68" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="6">
-        <v>2</v>
+      <c r="C69" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="6">
-        <v>2</v>
+      <c r="C70" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="6">
-        <v>1</v>
+      <c r="C71" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="6">
-        <v>2</v>
+      <c r="C72" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="6">
-        <v>2</v>
+      <c r="C73" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="6">
-        <v>2</v>
+      <c r="C74" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="6">
-        <v>1</v>
+      <c r="C75" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="6">
-        <v>1</v>
+      <c r="C76" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="6">
-        <v>1</v>
+      <c r="C77" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="6">
-        <v>1</v>
+      <c r="C78" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="6">
-        <v>2</v>
+      <c r="C79" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="6">
-        <v>1</v>
+      <c r="C80" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="6">
-        <v>2</v>
+      <c r="C81" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="6">
-        <v>2</v>
+      <c r="C82" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="6">
-        <v>3</v>
+      <c r="C83" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="6">
-        <v>1</v>
+      <c r="C84" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="6">
-        <v>1</v>
+      <c r="C85" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="6">
-        <v>3</v>
+      <c r="C86" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="6">
-        <v>2</v>
+      <c r="C87" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="6">
-        <v>2</v>
+      <c r="C88" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="6">
-        <v>3</v>
+      <c r="C89" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="6">
-        <v>2</v>
+      <c r="C90" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="6">
-        <v>3</v>
+      <c r="C91" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="6">
-        <v>3</v>
+      <c r="C92" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="6">
-        <v>3</v>
+      <c r="C93" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="6">
-        <v>2</v>
+      <c r="C94" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="6">
-        <v>2</v>
+      <c r="C95" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="6">
-        <v>3</v>
+      <c r="C96" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="6">
-        <v>2</v>
+      <c r="C97" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="6">
-        <v>2</v>
+      <c r="C98" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="6">
-        <v>3</v>
+      <c r="C99" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="6">
-        <v>3</v>
+      <c r="C100" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="6">
-        <v>3</v>
+      <c r="C101" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="6">
-        <v>1</v>
+      <c r="C102" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="6">
-        <v>2</v>
+      <c r="C103" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="6">
-        <v>3</v>
+      <c r="C104" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="6">
-        <v>2</v>
+      <c r="C105" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="6">
-        <v>2</v>
+      <c r="C106" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="6">
-        <v>2</v>
+      <c r="C107" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="6">
-        <v>3</v>
+      <c r="C108" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="6">
-        <v>2</v>
+      <c r="C109" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="6">
-        <v>2</v>
+      <c r="C110" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C111" s="6">
-        <v>1</v>
+      <c r="C111" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="6">
-        <v>2</v>
+      <c r="C112" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="6">
-        <v>3</v>
+      <c r="C113" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="6">
-        <v>2</v>
+      <c r="C114" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="6">
-        <v>2</v>
+      <c r="C115" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C116" s="6">
-        <v>3</v>
+      <c r="C116" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C117" s="6">
-        <v>2</v>
+      <c r="C117" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C118" s="6">
-        <v>2</v>
+      <c r="C118" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="6">
-        <v>2</v>
+      <c r="C119" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="6">
-        <v>1</v>
+      <c r="C120" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C121" s="6">
-        <v>1</v>
+      <c r="C121" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C122" s="6">
-        <v>2</v>
+      <c r="C122" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="6">
-        <v>1</v>
+      <c r="C123" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="6">
-        <v>2</v>
+      <c r="C124" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C125" s="6">
-        <v>2</v>
+      <c r="C125" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="6">
-        <v>2</v>
+      <c r="C126" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C127" s="6">
-        <v>3</v>
+      <c r="C127" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C128" s="6">
-        <v>3</v>
+      <c r="C128" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C129" s="6">
-        <v>1</v>
+      <c r="C129" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C130" s="6">
-        <v>2</v>
+      <c r="C130" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C131" s="6">
-        <v>2</v>
+      <c r="C131" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C132" s="6">
-        <v>2</v>
+      <c r="C132" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C133" s="6">
-        <v>2</v>
+      <c r="C133" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C134" s="6">
-        <v>2</v>
+      <c r="C134" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="6">
-        <v>2</v>
+      <c r="C135" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C136" s="6">
-        <v>2</v>
+      <c r="C136" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C137" s="6">
-        <v>3</v>
+      <c r="C137" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C138" s="6">
-        <v>1</v>
+      <c r="C138" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C139" s="6">
-        <v>2</v>
+      <c r="C139" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C140" s="6">
-        <v>1</v>
+      <c r="C140" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="6">
-        <v>2</v>
+      <c r="C141" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="6">
-        <v>2</v>
+      <c r="C142" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C143" s="6">
-        <v>3</v>
+      <c r="C143" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C144" s="6">
-        <v>2</v>
+      <c r="C144" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C145" s="6">
-        <v>2</v>
+      <c r="C145" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C146" s="6">
-        <v>1</v>
+      <c r="C146" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C147" s="6">
-        <v>3</v>
+      <c r="C147" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C148" s="6">
-        <v>2</v>
+      <c r="C148" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C149" s="6">
-        <v>3</v>
+      <c r="C149" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C150" s="6">
-        <v>3</v>
+      <c r="C150" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C151" s="6">
-        <v>2</v>
+      <c r="C151" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C152" s="6">
-        <v>2</v>
+      <c r="C152" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C153" s="6">
-        <v>2</v>
+      <c r="C153" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C154" s="6">
-        <v>2</v>
+      <c r="C154" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C155" s="6">
-        <v>1</v>
+      <c r="C155" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C156" s="6">
-        <v>3</v>
+      <c r="C156" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C157" s="6">
-        <v>1</v>
+      <c r="C157" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C158" s="6">
-        <v>3</v>
+      <c r="C158" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C159" s="6">
-        <v>3</v>
+      <c r="C159" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C160" s="6">
-        <v>2</v>
+      <c r="C160" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C161" s="6">
-        <v>2</v>
+      <c r="C161" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C162" s="6">
-        <v>1</v>
+      <c r="C162" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C163" s="6">
-        <v>3</v>
+      <c r="C163" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C164" s="6">
-        <v>1</v>
+      <c r="C164" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C165" s="6">
-        <v>3</v>
+      <c r="C165" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C166" s="6">
-        <v>3</v>
+      <c r="C166" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C167" s="6">
-        <v>1</v>
+      <c r="C167" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C168" s="6">
-        <v>3</v>
+      <c r="C168" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C169" s="6">
-        <v>1</v>
+      <c r="C169" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C170" s="6">
-        <v>3</v>
+      <c r="C170" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C171" s="6">
-        <v>3</v>
+      <c r="C171" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C172" s="6">
-        <v>3</v>
+      <c r="C172" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C173" s="6">
-        <v>3</v>
+      <c r="C173" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C174" s="6">
-        <v>1</v>
+      <c r="C174" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C175" s="6">
-        <v>2</v>
+      <c r="C175" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C176" s="6">
-        <v>1</v>
+      <c r="C176" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C177" s="6">
-        <v>1</v>
+      <c r="C177" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C178" s="6">
-        <v>2</v>
+      <c r="C178" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C179" s="6">
-        <v>3</v>
+      <c r="C179" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C180" s="6">
-        <v>2</v>
+      <c r="C180" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C181" s="6">
-        <v>2</v>
+      <c r="C181" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C182" s="6">
-        <v>1</v>
+      <c r="C182" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C183" s="6">
-        <v>2</v>
+      <c r="C183" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C184" s="6">
-        <v>2</v>
+      <c r="C184" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C185" s="6">
-        <v>2</v>
+      <c r="C185" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C186" s="6">
-        <v>2</v>
+      <c r="C186" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C187" s="6">
-        <v>2</v>
+      <c r="C187" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C188" s="6">
-        <v>3</v>
+      <c r="C188" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C189" s="6">
-        <v>2</v>
+      <c r="C189" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C190" s="6">
-        <v>2</v>
+      <c r="C190" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C191" s="6">
-        <v>3</v>
+      <c r="C191" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C192" s="6">
-        <v>3</v>
+      <c r="C192" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C193" s="6">
-        <v>1</v>
+      <c r="C193" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C194" s="6">
-        <v>3</v>
+      <c r="C194" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C195" s="6">
-        <v>3</v>
+      <c r="C195" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C196" s="6">
-        <v>3</v>
+      <c r="C196" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
     </row>
-    <row r="197" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C197" s="6">
-        <v>3</v>
+      <c r="C197" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
     </row>
-    <row r="198" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C198" s="6">
-        <v>1</v>
+      <c r="C198" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C199" s="6">
-        <v>2</v>
+      <c r="C199" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C200" s="6">
-        <v>1</v>
+      <c r="C200" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C201" s="6">
-        <v>2</v>
+      <c r="C201" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C202" s="6">
-        <v>2</v>
+      <c r="C202" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
     </row>
-    <row r="203" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C203" s="6">
-        <v>3</v>
+      <c r="C203" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C204" s="6">
-        <v>3</v>
+      <c r="C204" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C205" s="6">
-        <v>1</v>
+      <c r="C205" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C206" s="6">
-        <v>1</v>
+      <c r="C206" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
     </row>
-    <row r="207" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C207" s="6">
-        <v>1</v>
+      <c r="C207" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C208" s="6">
-        <v>2</v>
+      <c r="C208" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C209" s="6">
-        <v>2</v>
+      <c r="C209" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
     </row>
-    <row r="210" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C210" s="6">
-        <v>1</v>
+      <c r="C210" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
     </row>
-    <row r="211" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C211" s="6">
-        <v>1</v>
+      <c r="C211" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C212" s="6">
-        <v>3</v>
+      <c r="C212" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C213" s="6">
-        <v>3</v>
+      <c r="C213" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C214" s="6">
-        <v>1</v>
+      <c r="C214" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C215" s="6">
-        <v>3</v>
+      <c r="C215" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C216" s="6">
-        <v>1</v>
+      <c r="C216" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
     </row>
-    <row r="217" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C217" s="6">
-        <v>2</v>
+      <c r="C217" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="5">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C218" s="6">
-        <v>1</v>
+      <c r="C218" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C219" s="6">
-        <v>1</v>
+      <c r="C219" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C220" s="6">
-        <v>2</v>
+      <c r="C220" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C221" s="6">
-        <v>3</v>
+      <c r="C221" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="5">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C222" s="6">
-        <v>1</v>
+      <c r="C222" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C223" s="6">
-        <v>2</v>
+      <c r="C223" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
     </row>
-    <row r="224" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="5">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C224" s="6">
-        <v>1</v>
+      <c r="C224" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
     </row>
-    <row r="225" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C225" s="6">
-        <v>1</v>
+      <c r="C225" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C226" s="6">
-        <v>3</v>
+      <c r="C226" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="7"/>
@@ -5818,7 +5829,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="7"/>
@@ -5826,7 +5837,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="7"/>
@@ -5834,7 +5845,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
     </row>
-    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="7"/>
@@ -5842,7 +5853,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
     </row>
-    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="7"/>
@@ -5850,7 +5861,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="7"/>
@@ -5858,7 +5869,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="7"/>
@@ -5866,7 +5877,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="7"/>
@@ -5874,7 +5885,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="7"/>
@@ -5882,7 +5893,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
     </row>
-    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="7"/>
@@ -5890,7 +5901,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="7"/>
@@ -5898,7 +5909,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="7"/>
@@ -5906,7 +5917,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="7"/>
@@ -5914,7 +5925,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
     </row>
-    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="7"/>
@@ -5922,7 +5933,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="7"/>
@@ -5930,7 +5941,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="7"/>
@@ -5938,7 +5949,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="7"/>
@@ -5946,7 +5957,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="7"/>
@@ -5954,7 +5965,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
     </row>
-    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="7"/>
@@ -5962,7 +5973,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="7"/>
@@ -5970,7 +5981,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="7"/>
@@ -5978,7 +5989,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="7"/>
@@ -5986,7 +5997,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="7"/>
@@ -5994,7 +6005,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="7"/>
@@ -6002,7 +6013,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="7"/>
@@ -6029,14 +6040,14 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="55.33203125" style="8" customWidth="1"/>
+    <col min="1" max="2" width="55.36328125" style="8" customWidth="1"/>
     <col min="3" max="4" width="18" style="8" customWidth="1"/>
-    <col min="5" max="256" width="8.83203125" style="8" customWidth="1"/>
+    <col min="5" max="256" width="8.81640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6050,7 +6061,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -6064,7 +6075,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -6078,7 +6089,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -6092,7 +6103,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -6106,7 +6117,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -6120,7 +6131,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -6134,7 +6145,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6148,7 +6159,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6162,7 +6173,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -6176,7 +6187,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -6190,7 +6201,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -6204,7 +6215,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -6218,7 +6229,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -6232,7 +6243,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -6246,7 +6257,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -6260,7 +6271,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -6274,7 +6285,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -6288,7 +6299,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -6302,7 +6313,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -6316,7 +6327,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -6330,7 +6341,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -6344,7 +6355,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -6358,7 +6369,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -6372,7 +6383,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -6386,7 +6397,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -6400,7 +6411,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -6414,7 +6425,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -6428,7 +6439,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -6442,7 +6453,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -6456,7 +6467,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -6470,7 +6481,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -6484,7 +6495,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -6498,7 +6509,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -6512,7 +6523,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -6526,7 +6537,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -6540,7 +6551,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -6554,7 +6565,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -6568,7 +6579,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -6582,7 +6593,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -6596,7 +6607,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -6610,7 +6621,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -6624,7 +6635,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -6638,7 +6649,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -6652,7 +6663,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -6666,7 +6677,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -6680,7 +6691,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -6694,7 +6705,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -6708,7 +6719,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -6722,7 +6733,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -6736,7 +6747,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -6750,7 +6761,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -6764,7 +6775,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -6778,7 +6789,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -6792,7 +6803,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -6806,7 +6817,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -6820,7 +6831,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -6834,7 +6845,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -6848,7 +6859,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -6862,7 +6873,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -6876,7 +6887,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -6890,7 +6901,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -6904,7 +6915,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -6918,7 +6929,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -6932,7 +6943,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -6946,7 +6957,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -6960,7 +6971,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -6974,7 +6985,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -6988,7 +6999,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -7002,7 +7013,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -7016,7 +7027,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -7030,7 +7041,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -7044,7 +7055,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -7058,7 +7069,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -7072,7 +7083,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -7086,7 +7097,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -7100,7 +7111,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -7114,7 +7125,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -7128,7 +7139,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -7142,7 +7153,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -7156,7 +7167,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -7170,7 +7181,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -7184,7 +7195,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -7198,7 +7209,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -7212,7 +7223,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -7226,7 +7237,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -7240,7 +7251,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -7254,7 +7265,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -7268,7 +7279,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -7282,7 +7293,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -7296,7 +7307,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -7310,7 +7321,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -7324,7 +7335,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -7338,7 +7349,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -7352,7 +7363,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -7366,7 +7377,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -7380,7 +7391,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -7394,7 +7405,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -7408,7 +7419,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -7422,7 +7433,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -7436,7 +7447,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>100</v>
       </c>
